--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.507882</v>
+        <v>6.670167666666667</v>
       </c>
       <c r="H2">
-        <v>16.523646</v>
+        <v>20.010503</v>
       </c>
       <c r="I2">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="J2">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1378523333333333</v>
+        <v>0.11549</v>
       </c>
       <c r="N2">
-        <v>0.413557</v>
+        <v>0.34647</v>
       </c>
       <c r="O2">
-        <v>0.01719056794796269</v>
+        <v>0.01449407350231777</v>
       </c>
       <c r="P2">
-        <v>0.01719056794796269</v>
+        <v>0.01449407350231777</v>
       </c>
       <c r="Q2">
-        <v>0.7592743854246665</v>
+        <v>0.7703376638233334</v>
       </c>
       <c r="R2">
-        <v>6.833469468821999</v>
+        <v>6.93303897441</v>
       </c>
       <c r="S2">
-        <v>0.0006049130849774687</v>
+        <v>0.0006132002169046255</v>
       </c>
       <c r="T2">
-        <v>0.0006049130849774687</v>
+        <v>0.0006132002169046256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.507882</v>
+        <v>6.670167666666667</v>
       </c>
       <c r="H3">
-        <v>16.523646</v>
+        <v>20.010503</v>
       </c>
       <c r="I3">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="J3">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>23.078362</v>
       </c>
       <c r="O3">
-        <v>0.9593118967607375</v>
+        <v>0.9654500393716549</v>
       </c>
       <c r="P3">
-        <v>0.9593118967607375</v>
+        <v>0.965450039371655</v>
       </c>
       <c r="Q3">
-        <v>42.37096488309466</v>
+        <v>51.3121813373429</v>
       </c>
       <c r="R3">
-        <v>381.338683947852</v>
+        <v>461.809632036086</v>
       </c>
       <c r="S3">
-        <v>0.03375690208035842</v>
+        <v>0.04084525812971821</v>
       </c>
       <c r="T3">
-        <v>0.03375690208035842</v>
+        <v>0.04084525812971821</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.507882</v>
+        <v>6.670167666666667</v>
       </c>
       <c r="H4">
-        <v>16.523646</v>
+        <v>20.010503</v>
       </c>
       <c r="I4">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="J4">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1884283333333333</v>
+        <v>0.159807</v>
       </c>
       <c r="N4">
-        <v>0.565285</v>
+        <v>0.479421</v>
       </c>
       <c r="O4">
-        <v>0.02349753529129985</v>
+        <v>0.02005588712602732</v>
       </c>
       <c r="P4">
-        <v>0.02349753529129985</v>
+        <v>0.02005588712602732</v>
       </c>
       <c r="Q4">
-        <v>1.037841025456667</v>
+        <v>1.065939484307</v>
       </c>
       <c r="R4">
-        <v>9.340569229110001</v>
+        <v>9.593455358763</v>
       </c>
       <c r="S4">
-        <v>0.0008268468270189803</v>
+        <v>0.000848503654540458</v>
       </c>
       <c r="T4">
-        <v>0.0008268468270189803</v>
+        <v>0.000848503654540458</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>449.9625550000001</v>
       </c>
       <c r="I5">
-        <v>0.9582376829612175</v>
+        <v>0.9513278459982415</v>
       </c>
       <c r="J5">
-        <v>0.9582376829612176</v>
+        <v>0.9513278459982416</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1378523333333333</v>
+        <v>0.11549</v>
       </c>
       <c r="N5">
-        <v>0.413557</v>
+        <v>0.34647</v>
       </c>
       <c r="O5">
-        <v>0.01719056794796269</v>
+        <v>0.01449407350231777</v>
       </c>
       <c r="P5">
-        <v>0.01719056794796269</v>
+        <v>0.01449407350231777</v>
       </c>
       <c r="Q5">
-        <v>20.67612937312611</v>
+        <v>17.32205849231667</v>
       </c>
       <c r="R5">
-        <v>186.085164358135</v>
+        <v>155.89852643085</v>
       </c>
       <c r="S5">
-        <v>0.01647264999924314</v>
+        <v>0.01378861572470015</v>
       </c>
       <c r="T5">
-        <v>0.01647264999924315</v>
+        <v>0.01378861572470015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>449.9625550000001</v>
       </c>
       <c r="I6">
-        <v>0.9582376829612175</v>
+        <v>0.9513278459982415</v>
       </c>
       <c r="J6">
-        <v>0.9582376829612176</v>
+        <v>0.9513278459982416</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>23.078362</v>
       </c>
       <c r="O6">
-        <v>0.9593118967607375</v>
+        <v>0.9654500393716549</v>
       </c>
       <c r="P6">
-        <v>0.9593118967607375</v>
+        <v>0.965450039371655</v>
       </c>
       <c r="Q6">
         <v>1153.822081192768</v>
@@ -818,10 +818,10 @@
         <v>10384.39873073491</v>
       </c>
       <c r="S6">
-        <v>0.9192488091891398</v>
+        <v>0.9184595063743538</v>
       </c>
       <c r="T6">
-        <v>0.9192488091891399</v>
+        <v>0.918459506374354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>449.9625550000001</v>
       </c>
       <c r="I7">
-        <v>0.9582376829612175</v>
+        <v>0.9513278459982415</v>
       </c>
       <c r="J7">
-        <v>0.9582376829612176</v>
+        <v>0.9513278459982416</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1884283333333333</v>
+        <v>0.159807</v>
       </c>
       <c r="N7">
-        <v>0.565285</v>
+        <v>0.479421</v>
       </c>
       <c r="O7">
-        <v>0.02349753529129985</v>
+        <v>0.02005588712602732</v>
       </c>
       <c r="P7">
-        <v>0.02349753529129985</v>
+        <v>0.02005588712602732</v>
       </c>
       <c r="Q7">
-        <v>28.26189810035278</v>
+        <v>23.969055342295</v>
       </c>
       <c r="R7">
-        <v>254.357082903175</v>
+        <v>215.721498080655</v>
       </c>
       <c r="S7">
-        <v>0.02251622377283461</v>
+        <v>0.01907972389918743</v>
       </c>
       <c r="T7">
-        <v>0.02251622377283461</v>
+        <v>0.01907972389918744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.028937</v>
+        <v>1.003544</v>
       </c>
       <c r="H8">
-        <v>3.086811</v>
+        <v>3.010632</v>
       </c>
       <c r="I8">
-        <v>0.006573655046427582</v>
+        <v>0.0063651920005952</v>
       </c>
       <c r="J8">
-        <v>0.006573655046427582</v>
+        <v>0.006365192000595201</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1378523333333333</v>
+        <v>0.11549</v>
       </c>
       <c r="N8">
-        <v>0.413557</v>
+        <v>0.34647</v>
       </c>
       <c r="O8">
-        <v>0.01719056794796269</v>
+        <v>0.01449407350231777</v>
       </c>
       <c r="P8">
-        <v>0.01719056794796269</v>
+        <v>0.01449407350231777</v>
       </c>
       <c r="Q8">
-        <v>0.141841366303</v>
+        <v>0.11589929656</v>
       </c>
       <c r="R8">
-        <v>1.276572296727</v>
+        <v>1.04309366904</v>
       </c>
       <c r="S8">
-        <v>0.0001130048637420812</v>
+        <v>9.225756071299189E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001130048637420812</v>
+        <v>9.225756071299191E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.028937</v>
+        <v>1.003544</v>
       </c>
       <c r="H9">
-        <v>3.086811</v>
+        <v>3.010632</v>
       </c>
       <c r="I9">
-        <v>0.006573655046427582</v>
+        <v>0.0063651920005952</v>
       </c>
       <c r="J9">
-        <v>0.006573655046427582</v>
+        <v>0.006365192000595201</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>23.078362</v>
       </c>
       <c r="O9">
-        <v>0.9593118967607375</v>
+        <v>0.9654500393716549</v>
       </c>
       <c r="P9">
-        <v>0.9593118967607375</v>
+        <v>0.965450039371655</v>
       </c>
       <c r="Q9">
-        <v>7.915393520398001</v>
+        <v>7.720050571642668</v>
       </c>
       <c r="R9">
-        <v>71.238541683582</v>
+        <v>69.48045514478402</v>
       </c>
       <c r="S9">
-        <v>0.006306185491239237</v>
+        <v>0.006145274867582778</v>
       </c>
       <c r="T9">
-        <v>0.006306185491239237</v>
+        <v>0.00614527486758278</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.028937</v>
+        <v>1.003544</v>
       </c>
       <c r="H10">
-        <v>3.086811</v>
+        <v>3.010632</v>
       </c>
       <c r="I10">
-        <v>0.006573655046427582</v>
+        <v>0.0063651920005952</v>
       </c>
       <c r="J10">
-        <v>0.006573655046427582</v>
+        <v>0.006365192000595201</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1884283333333333</v>
+        <v>0.159807</v>
       </c>
       <c r="N10">
-        <v>0.565285</v>
+        <v>0.479421</v>
       </c>
       <c r="O10">
-        <v>0.02349753529129985</v>
+        <v>0.02005588712602732</v>
       </c>
       <c r="P10">
-        <v>0.02349753529129985</v>
+        <v>0.02005588712602732</v>
       </c>
       <c r="Q10">
-        <v>0.193880884015</v>
+        <v>0.160373356008</v>
       </c>
       <c r="R10">
-        <v>1.744927956135</v>
+        <v>1.443360204072</v>
       </c>
       <c r="S10">
-        <v>0.0001544646914462635</v>
+        <v>0.0001276595722994294</v>
       </c>
       <c r="T10">
-        <v>0.0001544646914462635</v>
+        <v>0.0001276595722994294</v>
       </c>
     </row>
   </sheetData>
